--- a/medicine/Psychotrope/Münchenbryggeriet/Münchenbryggeriet.xlsx
+++ b/medicine/Psychotrope/Münchenbryggeriet/Münchenbryggeriet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%BCnchenbryggeriet</t>
+          <t>Münchenbryggeriet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Münchenbryggeriet (anciennement Münchens bryggeri, dans les deux cas la brasserie de Munich) est un centre de congrès et de conférences situé sur la rive nord de l'île Södermalm au centre de Stockholm en Suède.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%BCnchenbryggeriet</t>
+          <t>Münchenbryggeriet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>De la fabrique textile à la brasserie mécanisée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est en 1740 que la corporation des brasseurs fonde une manufacture de vêtements sur le site aujourd'hui occupé par la brasserie de Munich. Il est alors tout à fait exceptionnel qu'une corporation possède une fabrique de vêtements, mais en juin 1739 le roi avait incité la bourgeoisie à se lancer dans la production industrielle. La corporation se voit attribuer un privilège pour la fabrication de vêtements le 18 août 1740 et se porte peu après acquéreur du terrain situé sur les rives du lac Mälar[1]. Pendant la première année d'activité, elle dispose de deux métiers à tisser et de 30 employés. L'activité culmine dans les années 1760, avec douze métiers à tisser et 150 employés. L'usine est dirigée à partir de 1751 par Jakob Hongelin, puis par son fils Jakob Vilhelm Hongelin. Faisant face à un contexte difficile, elle doit fermer ses portes en 1803, mais l'activité redémarre sous la direction de Johan Christian Fougt. Pendant quelques décennies, l'usine connaît une nouvelle période faste, et à partir des années 1840 elle est rejointe sur les lieux par une fabrique de carrelage[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est en 1740 que la corporation des brasseurs fonde une manufacture de vêtements sur le site aujourd'hui occupé par la brasserie de Munich. Il est alors tout à fait exceptionnel qu'une corporation possède une fabrique de vêtements, mais en juin 1739 le roi avait incité la bourgeoisie à se lancer dans la production industrielle. La corporation se voit attribuer un privilège pour la fabrication de vêtements le 18 août 1740 et se porte peu après acquéreur du terrain situé sur les rives du lac Mälar. Pendant la première année d'activité, elle dispose de deux métiers à tisser et de 30 employés. L'activité culmine dans les années 1760, avec douze métiers à tisser et 150 employés. L'usine est dirigée à partir de 1751 par Jakob Hongelin, puis par son fils Jakob Vilhelm Hongelin. Faisant face à un contexte difficile, elle doit fermer ses portes en 1803, mais l'activité redémarre sous la direction de Johan Christian Fougt. Pendant quelques décennies, l'usine connaît une nouvelle période faste, et à partir des années 1840 elle est rejointe sur les lieux par une fabrique de carrelage.
 Lorsque le grossiste  C. C. Brusell &amp; Co rachète le terrain en 1855, il prend possession d'une fabrique de textile et de carrelage équipée d'une machine à vapeur. Les locaux sont alors transformés en brasserie. Aucune brasserie de Stockholm n'avait auparavant été équipée d'une machine à vapeur. C'est cette mécanisation qui est à l'origine de la transformation des brasseries en véritables industries modernes. Le choix du nom Münchens Bryggeri a pour objectif de promouvoir l'image du produit phare, la Münchener, très populaire à cette époque. La fabrication et la vente commencent en avril 1857.
-Pour la brasserie, l'emplacement est idéal car la fabrication de bière requiert d'importantes quantités de glace. On utilise alors directement la glace du lac Mälar pour refroidir la bière pendant la fermentation et le stockage. Dès ses débuts, la brasserie de Munich prospère, la production y augmentant régulièrement. Elle s'accroît progressivement avec la construction de nouveaux bâtiments sur le terrain[3].
+Pour la brasserie, l'emplacement est idéal car la fabrication de bière requiert d'importantes quantités de glace. On utilise alors directement la glace du lac Mälar pour refroidir la bière pendant la fermentation et le stockage. Dès ses débuts, la brasserie de Munich prospère, la production y augmentant régulièrement. Elle s'accroît progressivement avec la construction de nouveaux bâtiments sur le terrain.
 La production de bière est alors saisonnière : il se vend plus de bière en été qu'en hiver. Une grande partie des emplois saisonniers sont occupés par des femmes originaires de Dalécarlie. Stockholm est en effet au XIXe siècle la cible d'une migration massive en provenance de cette région de l'ouest de la Suède. C'est un travail difficile : une palette de 100 bouteilles pèse 90 kg et doit être soulevée à une hauteur de 125 cm par deux femmes. Le travail, qui inclut aussi les tâches de nettoyage, remplissage des bouteilles, pose des bouchons et étiquetage est toutefois le mieux payé des emplois de manutention ouverts aux femmes.
 </t>
         </is>
